--- a/DataSheet/MPPC_Mapping_1.xlsx
+++ b/DataSheet/MPPC_Mapping_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IKP\HYDRA\FiberDetector\KiCAD\Test_PCB_MPPC-array_FARICH\DataSheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Documents\IKP\HYDRA\FiberDetector\KiCAD\8.0\Test_PCB_MPPC-array_FARICH\DataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FB22B8-A132-4154-B7BC-98053D4DCEF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48774CCD-8E61-40A8-ABAD-95C8B22BBB8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{08891206-9730-4DF0-AB1E-80D08C536ED0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{08891206-9730-4DF0-AB1E-80D08C536ED0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="37">
   <si>
     <t>MPPC_1 Ch</t>
   </si>
@@ -51,18 +51,6 @@
   </si>
   <si>
     <t>A_G8</t>
-  </si>
-  <si>
-    <t>FARICH Cube_1(top-left)</t>
-  </si>
-  <si>
-    <t>FARICH Cube_2(bottom-left)</t>
-  </si>
-  <si>
-    <t>FARICH Cube_1(top-right)</t>
-  </si>
-  <si>
-    <t>FARICH Cube_2(bottom-right)</t>
   </si>
   <si>
     <t>A_H1</t>
@@ -100,12 +88,72 @@
   <si>
     <t>A_H5</t>
   </si>
+  <si>
+    <t>A_G4</t>
+  </si>
+  <si>
+    <t>A_G5</t>
+  </si>
+  <si>
+    <t>FARICH Cube_1(top)</t>
+  </si>
+  <si>
+    <t>FARICH Cube_2(bottom)</t>
+  </si>
+  <si>
+    <t>A_F1</t>
+  </si>
+  <si>
+    <t>A_F8</t>
+  </si>
+  <si>
+    <t>A_E1</t>
+  </si>
+  <si>
+    <t>A_E8</t>
+  </si>
+  <si>
+    <t>A_E2</t>
+  </si>
+  <si>
+    <t>A_E7</t>
+  </si>
+  <si>
+    <t>A_F2</t>
+  </si>
+  <si>
+    <t>A_F7</t>
+  </si>
+  <si>
+    <t>A_F3</t>
+  </si>
+  <si>
+    <t>A_F6</t>
+  </si>
+  <si>
+    <t>A_E3</t>
+  </si>
+  <si>
+    <t>A_E6</t>
+  </si>
+  <si>
+    <t>A_E4</t>
+  </si>
+  <si>
+    <t>A_E5</t>
+  </si>
+  <si>
+    <t>A_F4</t>
+  </si>
+  <si>
+    <t>A_F5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,7 +162,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,18 +177,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -148,30 +208,129 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF99FF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -188,15 +347,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>25551</xdr:rowOff>
+      <xdr:colOff>3487831</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>168987</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>515791</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>337841</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>133822</xdr:rowOff>
+      <xdr:rowOff>97964</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -219,8 +378,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11877675" y="206526"/>
-          <a:ext cx="5840266" cy="1918021"/>
+          <a:off x="12255313" y="168987"/>
+          <a:ext cx="5291626" cy="1901212"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -768,15 +927,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>120043</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>3864244</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>126006</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>69214</xdr:rowOff>
+      <xdr:colOff>247599</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>80683</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -799,8 +958,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11835793" y="2257425"/>
-          <a:ext cx="5975957" cy="5955664"/>
+          <a:off x="12631726" y="2098241"/>
+          <a:ext cx="4579786" cy="4974913"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -809,6 +968,140 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>570035</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>732</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1143903" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{050284B6-068F-4860-8AA9-E26900A4403E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10569820" y="1817809"/>
+          <a:ext cx="1143903" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cube_2 (Bottom)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>587620</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>30040</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="934487" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB30BF34-B069-432E-A310-59D7D7215B1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10587405" y="211748"/>
+          <a:ext cx="934487" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Cube_1 (Top)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-DE" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1131,1482 +1424,2874 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BA5BB1-F540-4E5F-A944-E440685EEF59}">
   <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="25.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="25.625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="12.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="49.88671875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>6</v>
+      <c r="B1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
+      <c r="E1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>128</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="B2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
         <v>128</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
+      <c r="E2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <f>(A2-1)</f>
         <v>127</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
         <f>(D2-1)</f>
         <v>127</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
+      <c r="E3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <f t="shared" ref="A4:A68" si="0">(A3-1)</f>
         <v>126</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <f t="shared" ref="D4:D69" si="1">(D3-1)</f>
         <v>126</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
+      <c r="E4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="1">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <f t="shared" si="0"/>
-        <v>124</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="1"/>
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <f t="shared" si="0"/>
-        <v>123</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="D13" s="5">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="1"/>
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>122</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="C15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1">
-        <f t="shared" si="1"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>121</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D16" s="5">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="1">
-        <f t="shared" si="1"/>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="D17" s="5">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <f t="shared" si="0"/>
-        <v>119</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="1"/>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <f t="shared" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="C19" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="1">
-        <f t="shared" si="1"/>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <f t="shared" si="0"/>
-        <v>117</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D20" s="5">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="1">
-        <f t="shared" si="1"/>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <f t="shared" si="0"/>
-        <v>116</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="D21" s="5">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="1"/>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <f t="shared" si="0"/>
-        <v>115</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="C22" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
-        <f t="shared" si="0"/>
-        <v>114</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="C23" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="1">
-        <f t="shared" si="1"/>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <f t="shared" si="0"/>
-        <v>113</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="D24" s="5">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="1">
-        <f t="shared" si="1"/>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <f t="shared" si="0"/>
-        <v>112</v>
-      </c>
-      <c r="B18" s="1" t="s">
+      <c r="D25" s="5">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <f t="shared" si="0"/>
-        <v>111</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="C26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <f t="shared" si="0"/>
+        <v>103</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="1"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="C27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="1">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <f t="shared" si="0"/>
-        <v>109</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="D28" s="5">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <f t="shared" si="0"/>
+        <v>101</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="1">
-        <f t="shared" si="1"/>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <f t="shared" si="0"/>
-        <v>108</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="D29" s="5">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="1"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <f t="shared" si="0"/>
-        <v>107</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="C30" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="5">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="1"/>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <f t="shared" si="0"/>
-        <v>106</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="C31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="5">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="1">
-        <f t="shared" si="1"/>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
-        <f t="shared" si="0"/>
-        <v>104</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="D32" s="5">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1">
-        <f t="shared" si="0"/>
-        <v>103</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="1"/>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1">
-        <f t="shared" si="0"/>
-        <v>102</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" si="1"/>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1">
-        <f t="shared" si="0"/>
-        <v>101</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" si="1"/>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1">
-        <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1">
-        <f t="shared" si="0"/>
-        <v>98</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1">
-        <f t="shared" si="0"/>
+      <c r="D33" s="5">
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="D33" s="1">
-        <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1">
+      <c r="E33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="D34" s="1">
+      <c r="B34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="5">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1">
+      <c r="E34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="D35" s="1">
+      <c r="B35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="5">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1">
+      <c r="E35" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="D36" s="1">
+      <c r="B36" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="5">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1">
+      <c r="E36" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="D37" s="1">
+      <c r="B37" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="5">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1">
+      <c r="E37" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="D38" s="1">
+      <c r="B38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="5">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1">
+      <c r="E38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
         <f>(A38-1)</f>
         <v>91</v>
       </c>
-      <c r="D39" s="1">
+      <c r="B39" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="5">
         <f>(D38-1)</f>
         <v>91</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1">
+      <c r="E39" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="D40" s="1">
+      <c r="B40" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="5">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1">
+      <c r="E40" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="D41" s="1">
+      <c r="B41" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="5">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1">
+      <c r="E41" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="D42" s="1">
+      <c r="B42" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="5">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1">
+      <c r="E42" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="D43" s="1">
+      <c r="B43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="5">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1">
+      <c r="E43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="D44" s="1">
+      <c r="B44" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="5">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="1">
+      <c r="E44" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="D45" s="1">
+      <c r="B45" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="5">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1">
+      <c r="E45" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="D46" s="1">
+      <c r="B46" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="5">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1">
+      <c r="E46" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="D47" s="1">
+      <c r="B47" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="5">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="1">
+      <c r="E47" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="D48" s="1">
+      <c r="B48" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="5">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="1">
+      <c r="E48" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="D49" s="1">
+      <c r="B49" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="5">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="1">
+      <c r="E49" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="D50" s="1">
+      <c r="B50" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="5">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="1">
+      <c r="E50" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="D51" s="1">
+      <c r="B51" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="5">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="1">
+      <c r="E51" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="D52" s="1">
+      <c r="B52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="5">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="1">
+      <c r="E52" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="D53" s="1">
+      <c r="B53" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="5">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="1">
+      <c r="E53" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="D54" s="1">
+      <c r="B54" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="5">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="1">
+      <c r="E54" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="D55" s="1">
+      <c r="B55" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="5">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="1">
+      <c r="E55" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="D56" s="1">
+      <c r="B56" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="5">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="1">
+      <c r="E56" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="D57" s="1">
+      <c r="B57" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="5">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="1">
+      <c r="E57" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="D58" s="1">
+      <c r="B58" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="5">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="1">
+      <c r="E58" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="D59" s="1">
+      <c r="B59" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="5">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="1">
+      <c r="E59" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="D60" s="1">
+      <c r="B60" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="5">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="1">
+      <c r="E60" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="D61" s="1">
+      <c r="B61" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="5">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="1">
+      <c r="E61" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="D62" s="1">
+      <c r="B62" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="5">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="1">
+      <c r="E62" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="D63" s="1">
+      <c r="B63" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="5">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="1">
+      <c r="E63" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="D64" s="1">
+      <c r="B64" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="5">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="1">
+      <c r="E64" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="D65" s="1">
+      <c r="B65" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" s="5">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="1">
+      <c r="E65" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="D66" s="1">
+      <c r="B66" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="5">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="1">
+      <c r="E66" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
         <f>(A66-1)</f>
         <v>63</v>
       </c>
-      <c r="D67" s="1">
+      <c r="B67" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="5">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="1">
+      <c r="E67" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="D68" s="1">
+      <c r="B68" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="5">
         <f>(D67-1)</f>
         <v>62</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="1">
+      <c r="E68" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
         <f t="shared" ref="A69:A98" si="2">(A68-1)</f>
         <v>61</v>
       </c>
-      <c r="D69" s="1">
+      <c r="B69" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="5">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="1">
+      <c r="E69" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="D70" s="1">
+      <c r="B70" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="5">
         <f t="shared" ref="D70:D89" si="3">(D69-1)</f>
         <v>60</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="1">
+      <c r="E70" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="D71" s="1">
+      <c r="B71" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="5">
         <f t="shared" si="3"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="1">
+      <c r="E71" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="D72" s="1">
+      <c r="B72" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="5">
         <f t="shared" si="3"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="1">
+      <c r="E72" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="D73" s="1">
+      <c r="B73" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="5">
         <f t="shared" si="3"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="1">
+      <c r="E73" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="D74" s="1">
+      <c r="B74" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D74" s="5">
         <f t="shared" si="3"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="1">
+      <c r="E74" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="D75" s="1">
+      <c r="B75" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D75" s="5">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="1">
+      <c r="E75" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="D76" s="1">
+      <c r="B76" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="5">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="1">
+      <c r="E76" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="D77" s="1">
+      <c r="B77" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D77" s="5">
         <f t="shared" si="3"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="1">
+      <c r="E77" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="D78" s="1">
+      <c r="B78" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="5">
         <f t="shared" si="3"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="1">
+      <c r="E78" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="D79" s="1">
+      <c r="B79" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="5">
         <f t="shared" si="3"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="1">
+      <c r="E79" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="D80" s="1">
+      <c r="B80" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D80" s="5">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="1">
+      <c r="E80" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F80" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="D81" s="1">
+      <c r="B81" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D81" s="5">
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="1">
+      <c r="E81" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F81" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="D82" s="1">
+      <c r="B82" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D82" s="5">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="1">
+      <c r="E82" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="D83" s="1">
+      <c r="B83" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="5">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="1">
+      <c r="E83" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="D84" s="1">
+      <c r="B84" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D84" s="5">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="1">
+      <c r="E84" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="D85" s="1">
+      <c r="B85" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D85" s="5">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="1">
+      <c r="E85" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="D86" s="1">
+      <c r="B86" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="5">
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="1">
+      <c r="E86" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="D87" s="1">
+      <c r="B87" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="5">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="1">
+      <c r="E87" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="D88" s="1">
+      <c r="B88" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D88" s="5">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="1">
+      <c r="E88" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="3">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="D89" s="1">
+      <c r="B89" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D89" s="5">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="1">
+      <c r="E89" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="D90" s="1">
+      <c r="B90" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D90" s="5">
         <f>(D89-1)</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="1">
+      <c r="E90" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="D91" s="1">
+      <c r="B91" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="5">
         <f t="shared" ref="D91:D129" si="4">(D90-1)</f>
         <v>39</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="1">
+      <c r="E91" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="D92" s="1">
+      <c r="B92" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D92" s="5">
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="1">
+      <c r="E92" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="D93" s="1">
+      <c r="B93" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D93" s="5">
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="1">
+      <c r="E93" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="D94" s="1">
+      <c r="B94" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="5">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="1">
+      <c r="E94" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="D95" s="1">
+      <c r="B95" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" s="5">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="1">
+      <c r="E95" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F95" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="D96" s="1">
+      <c r="B96" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D96" s="5">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="1">
+      <c r="E96" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="D97" s="1">
+      <c r="B97" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D97" s="5">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="1">
+      <c r="E97" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="D98" s="1">
+      <c r="B98" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" s="5">
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="1">
+      <c r="E98" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
         <f>(A98-1)</f>
         <v>31</v>
       </c>
-      <c r="D99" s="1">
+      <c r="B99" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" s="5">
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="1">
-        <f t="shared" ref="A100:A132" si="5">(A99-1)</f>
+      <c r="E99" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <f t="shared" ref="A100:A129" si="5">(A99-1)</f>
         <v>30</v>
       </c>
-      <c r="D100" s="1">
+      <c r="B100" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D100" s="5">
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="1">
+      <c r="E100" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="D101" s="1">
+      <c r="B101" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D101" s="5">
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="1">
+      <c r="E101" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="D102" s="1">
+      <c r="B102" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D102" s="5">
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="1">
+      <c r="E102" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F102" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="D103" s="1">
+      <c r="B103" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" s="5">
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="1">
+      <c r="E103" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F103" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="D104" s="1">
+      <c r="B104" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D104" s="5">
         <f t="shared" si="4"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="1">
+      <c r="E104" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F104" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="D105" s="1">
+      <c r="B105" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D105" s="5">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="1">
+      <c r="E105" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="D106" s="1">
+      <c r="B106" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" s="5">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="1">
+      <c r="E106" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F106" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="3">
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="D107" s="1">
+      <c r="B107" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" s="5">
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="1">
+      <c r="E107" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F107" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="3">
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="D108" s="1">
+      <c r="B108" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D108" s="5">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="1">
+      <c r="E108" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="3">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="D109" s="1">
+      <c r="B109" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D109" s="5">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="1">
+      <c r="E109" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F109" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="3">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="D110" s="1">
+      <c r="B110" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D110" s="5">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="1">
+      <c r="E110" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="D111" s="1">
+      <c r="B111" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="5">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="1">
+      <c r="E111" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F111" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="3">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="D112" s="1">
+      <c r="B112" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D112" s="5">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="1">
+      <c r="E112" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F112" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="3">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="D113" s="1">
+      <c r="B113" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" s="5">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="1">
+      <c r="E113" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="3">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="D114" s="1">
+      <c r="B114" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" s="5">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="1">
+      <c r="E114" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F114" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="3">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="D115" s="1">
+      <c r="B115" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" s="5">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="1">
+      <c r="E115" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="3">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="D116" s="1">
+      <c r="B116" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" s="5">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="1">
+      <c r="E116" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="3">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="D117" s="1">
+      <c r="B117" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D117" s="5">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="1">
+      <c r="E117" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="D118" s="1">
+      <c r="B118" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D118" s="5">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="1">
+      <c r="E118" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="3">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="D119" s="1">
+      <c r="B119" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119" s="5">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="1">
+      <c r="E119" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="3">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="D120" s="1">
+      <c r="B120" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D120" s="5">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="1">
+      <c r="E120" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="3">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="D121" s="1">
+      <c r="B121" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D121" s="5">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="1">
+      <c r="E121" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="3">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="D122" s="1">
+      <c r="B122" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" s="5">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="1">
+      <c r="E122" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="3">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="D123" s="1">
+      <c r="B123" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" s="5">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="1">
+      <c r="E123" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="3">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="D124" s="1">
+      <c r="B124" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D124" s="5">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="1">
+      <c r="E124" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="3">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="D125" s="1">
+      <c r="B125" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D125" s="5">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="1">
+      <c r="E125" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F125" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="3">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="D126" s="1">
+      <c r="B126" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126" s="5">
         <f>(D125-1)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="1">
+      <c r="E126" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="3">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="D127" s="1">
+      <c r="B127" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D127" s="5">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="1">
+      <c r="E127" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="3">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="D128" s="1">
+      <c r="B128" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D128" s="5">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="1">
+      <c r="E128" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="3">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="D129" s="1">
+      <c r="B129" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
+      <c r="E129" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:F1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>